--- a/app/techdoc/templates/COMPLETE.xlsx
+++ b/app/techdoc/templates/COMPLETE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="9390"/>
+    <workbookView windowWidth="25140" windowHeight="10065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Project</t>
   </si>
@@ -23,7 +23,10 @@
     <t>Finding</t>
   </si>
   <si>
-    <t>Vulnerability</t>
+    <t>Vulnerability (where)</t>
+  </si>
+  <si>
+    <t>Vulnerability (specific)</t>
   </si>
   <si>
     <t>Treatment</t>
@@ -31,21 +34,15 @@
   <si>
     <t>Treatment manager</t>
   </si>
-  <si>
-    <t>Where</t>
-  </si>
-  <si>
-    <t>Specific</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -56,24 +53,77 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -87,6 +137,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -94,8 +181,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,98 +191,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,12 +206,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -227,13 +320,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,151 +386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,15 +420,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,15 +469,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -515,162 +494,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -741,7 +744,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="1F2326"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1021,7 +1024,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -1030,6 +1033,7 @@
     <col min="3" max="3" width="27.4" customWidth="1"/>
     <col min="4" max="4" width="21.2" customWidth="1"/>
     <col min="5" max="5" width="16.4" customWidth="1"/>
+    <col min="6" max="6" width="19.6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1042,34 +1046,25 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="F2" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
